--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Input_Data/MI+AG_Values.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Input_Data/MI+AG_Values.xlsx
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31554.495719598</v>
+        <v>31681.743579397</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10887.8132195418</v>
+        <v>10931.7198293127</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9029.45451890329</v>
+        <v>9044.18177835494</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6320.61816323231</v>
+        <v>6330.92724484846</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21771.0181178002</v>
+        <v>21806.5271767002</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6653.66363416444</v>
+        <v>6680.49545124665</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10835.345422684</v>
+        <v>10853.0181340259</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1504.90908648388</v>
+        <v>1507.36362972582</v>
       </c>
     </row>
     <row r="12">
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>91459.0955885245</v>
+        <v>92888.6433827867</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>63897.4945477389</v>
+        <v>64896.2418216083</v>
       </c>
     </row>
     <row r="14">
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27196.4617399491</v>
+        <v>27394.6926099237</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31154.1557991208</v>
+        <v>31381.2336986813</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23644.6850201797</v>
+        <v>23817.0275302695</v>
       </c>
     </row>
     <row r="17">
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>74485.8317803084</v>
+        <v>75028.7476704627</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19281.0736216057</v>
+        <v>19421.6104324086</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61394.9975845867</v>
+        <v>61842.49637688</v>
       </c>
     </row>
     <row r="20">
@@ -749,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12801.3930491866</v>
+        <v>12802.08957378</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18469.2389428013</v>
+        <v>18603.8584142019</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26246.4817629362</v>
+        <v>26046.5300774394</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9056.29402682784</v>
+        <v>8987.3011129823</v>
       </c>
     </row>
     <row r="6">
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8558.07555965569</v>
+        <v>8516.60102624779</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5990.65289175899</v>
+        <v>5961.62071837346</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20634.4710716143</v>
+        <v>20534.4713632864</v>
       </c>
     </row>
     <row r="9">
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5534.40190528368</v>
+        <v>5492.23956904474</v>
       </c>
     </row>
     <row r="10">
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10269.6906715868</v>
+        <v>10219.9212314974</v>
       </c>
     </row>
     <row r="11">
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1426.34592660928</v>
+        <v>1419.43350437463</v>
       </c>
     </row>
     <row r="12">
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54980.9790913416</v>
+        <v>53986.765787726</v>
       </c>
     </row>
     <row r="13">
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38412.2190265693</v>
+        <v>37717.6162783322</v>
       </c>
     </row>
     <row r="14">
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17057.0720593921</v>
+        <v>16597.7386056623</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19539.2579187811</v>
+        <v>19013.0811639488</v>
       </c>
     </row>
     <row r="16">
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14829.4693650685</v>
+        <v>14430.1234892511</v>
       </c>
     </row>
     <row r="17">
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46716.0107895289</v>
+        <v>45457.9855841644</v>
       </c>
     </row>
     <row r="18">
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12092.7003406137</v>
+        <v>11767.0534890888</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38505.7037161649</v>
+        <v>37468.7755836778</v>
       </c>
     </row>
     <row r="20">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13504.3134711629</v>
+        <v>13501.5108579774</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11583.5340104827</v>
+        <v>11271.5986053378</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31695.769715716</v>
+        <v>37190.1334354117</v>
       </c>
     </row>
     <row r="5">
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10936.5595185218</v>
+        <v>12832.3783099823</v>
       </c>
     </row>
     <row r="6">
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9292.32332030555</v>
+        <v>10417.3641511772</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6504.62632421388</v>
+        <v>7292.15490582407</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22404.8240056256</v>
+        <v>25117.422453394</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6683.45303909666</v>
+        <v>7842.00896721142</v>
       </c>
     </row>
     <row r="10">
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11150.7879843667</v>
+        <v>12500.8369814127</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1548.72055338426</v>
+        <v>1736.22735852954</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>87792.6264446082</v>
+        <v>115845.135695649</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61335.9320194272</v>
+        <v>80934.6941259673</v>
       </c>
     </row>
     <row r="14">
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25698.433003941</v>
+        <v>38204.4613606286</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29438.1303440667</v>
+        <v>43764.065812362</v>
       </c>
     </row>
     <row r="16">
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22342.2943653666</v>
+        <v>33215.0727500988</v>
       </c>
     </row>
     <row r="17">
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>70383.0217346742</v>
+        <v>104634.606860826</v>
       </c>
     </row>
     <row r="18">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18219.0383236894</v>
+        <v>27085.2524571621</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>58013.2536096429</v>
+        <v>86245.1459820162</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13549.1460458775</v>
+        <v>13624.2905810236</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17451.9209205868</v>
+        <v>25944.8207747552</v>
       </c>
     </row>
     <row r="22">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17780.3031901615</v>
+        <v>17073.8772412263</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6135.0566918129</v>
+        <v>5891.30588515154</v>
       </c>
     </row>
     <row r="6">
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7758.21936747375</v>
+        <v>7657.93569908772</v>
       </c>
     </row>
     <row r="7">
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5430.75355723163</v>
+        <v>5360.55498936141</v>
       </c>
     </row>
     <row r="8">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18705.9289193534</v>
+        <v>18464.1338522448</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3749.20131166343</v>
+        <v>3600.24248537038</v>
       </c>
     </row>
     <row r="10">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9309.86324096849</v>
+        <v>9189.52283890526</v>
       </c>
     </row>
     <row r="11">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1293.03656124562</v>
+        <v>1276.32261651462</v>
       </c>
     </row>
     <row r="12">
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13980.6378814072</v>
+        <v>13976.0335910038</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28882.6715986751</v>
+        <v>47839.1485993502</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9965.90585513388</v>
+        <v>16506.7988777311</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9209.73813977476</v>
+        <v>11907.2568573785</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6446.81669784233</v>
+        <v>8335.07980016495</v>
       </c>
     </row>
     <row r="8">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22205.7019592347</v>
+        <v>28709.7193116792</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6090.27580035959</v>
+        <v>10087.4882030579</v>
       </c>
     </row>
     <row r="10">
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11051.6857677297</v>
+        <v>14288.7082288542</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1534.95635662913</v>
+        <v>1984.54280956308</v>
       </c>
     </row>
     <row r="12">
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>103978.121837976</v>
+        <v>146596.084865546</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>72643.8571305953</v>
+        <v>102418.709403807</v>
       </c>
     </row>
     <row r="14">
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24203.7790397386</v>
+        <v>44606.7331260819</v>
       </c>
     </row>
     <row r="15">
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27725.9707656705</v>
+        <v>51098.0114541311</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21042.8377472353</v>
+        <v>38781.2269342428</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66289.4545342091</v>
+        <v>122169.186994567</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17159.3955878743</v>
+        <v>31624.1764699833</v>
       </c>
     </row>
     <row r="19">
@@ -1477,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54639.1280561261</v>
+        <v>100698.035601789</v>
       </c>
     </row>
     <row r="20">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14044.7297465829</v>
+        <v>14167.6811092898</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16436.8947210164</v>
+        <v>30292.632197563</v>
       </c>
     </row>
     <row r="22">
